--- a/public/ProductBacklog.xlsx
+++ b/public/ProductBacklog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -39,36 +39,317 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>Login as a teacher and show</t>
   </si>
   <si>
-    <t xml:space="preserve">that it is successful. Ditto for </t>
-  </si>
-  <si>
-    <t>student</t>
-  </si>
-  <si>
-    <t>Only basic safety is</t>
-  </si>
-  <si>
-    <t>to be implemented</t>
-  </si>
-  <si>
     <t>No SSL layer reqd.</t>
   </si>
   <si>
-    <t>(To be defined by user)</t>
+    <t>Login for student</t>
+  </si>
+  <si>
+    <t>Login as a student and show</t>
+  </si>
+  <si>
+    <t xml:space="preserve">that it is successful.  </t>
+  </si>
+  <si>
+    <t>Login for teacher</t>
+  </si>
+  <si>
+    <t>Only basic safety is to be implemented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make entity classes, with attributes, </t>
+  </si>
+  <si>
+    <t>store hashed value. Compare with login.</t>
+  </si>
+  <si>
+    <t>Teacher sets up period</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Show setting up of period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher can set maximum marks and </t>
+  </si>
+  <si>
+    <t>Teacher sets up descripti-</t>
+  </si>
+  <si>
+    <t>on for score task</t>
+  </si>
+  <si>
+    <t>Show setting up of descripti-</t>
+  </si>
+  <si>
+    <t>on and addition to database</t>
+  </si>
+  <si>
+    <t>Description for score tasks is in two parts</t>
+  </si>
+  <si>
+    <t>Part 1: for attendance</t>
+  </si>
+  <si>
+    <t>Part 2: for Cas</t>
+  </si>
+  <si>
+    <t>Teacher adds/edits scores</t>
+  </si>
+  <si>
+    <t>Show adding.editing for arb-</t>
+  </si>
+  <si>
+    <t>itrary student</t>
+  </si>
+  <si>
+    <t>Use http POST and PUT methods in REST-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API. Now MONGO will be used as the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher sees points for </t>
+  </si>
+  <si>
+    <t>Show getting points for</t>
+  </si>
+  <si>
+    <t>student/ whole class</t>
+  </si>
+  <si>
+    <t>Use http GET in the REST api. Use mongo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> attendance for a day</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a task(CA)</t>
+  </si>
+  <si>
+    <t>Use http GET in the REST api. Use mongo</t>
+  </si>
+  <si>
+    <t>database. Non relational database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show getting points for </t>
+  </si>
+  <si>
+    <t xml:space="preserve">specified CA for </t>
+  </si>
+  <si>
+    <t>student/whole class</t>
+  </si>
+  <si>
+    <t>Teacher sees all points</t>
+  </si>
+  <si>
+    <t>for a period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show getting points for a </t>
+  </si>
+  <si>
+    <t>specified period for a single</t>
+  </si>
+  <si>
+    <t>Implement frontend with AngularJS</t>
+  </si>
+  <si>
+    <t>required marks. Use http POST in the REST</t>
+  </si>
+  <si>
+    <t>api. Frontend w/Angular JS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use http POST in the REST api. </t>
+  </si>
+  <si>
+    <t>Frontend w/Angular JS.</t>
+  </si>
+  <si>
+    <t>for a semester</t>
+  </si>
+  <si>
+    <t>specified semester for a</t>
+  </si>
+  <si>
+    <t>single student/whole class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher sets up a new </t>
+  </si>
+  <si>
+    <t>Show successful addition of</t>
+  </si>
+  <si>
+    <t>a teacher to the system</t>
+  </si>
+  <si>
+    <t>This forms data is posted to the database</t>
+  </si>
+  <si>
+    <t>using http POST in the REST api</t>
+  </si>
+  <si>
+    <t>frontend.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use a form with a submit button in the </t>
+  </si>
+  <si>
+    <t>teacher manually</t>
+  </si>
+  <si>
+    <t>Teacher sets up multiple</t>
+  </si>
+  <si>
+    <t>new teachers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiple teachers to the </t>
+  </si>
+  <si>
+    <t>system.</t>
+  </si>
+  <si>
+    <t>Separate the values between commas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add each gotten value separately to the </t>
+  </si>
+  <si>
+    <t>teachers database using POST in the REST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher sets up multiple </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show successful addition of </t>
+  </si>
+  <si>
+    <t>multiple students to the</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> system</t>
+  </si>
+  <si>
+    <t>Separate the values between commas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">option teacher/student and \in this case </t>
+  </si>
+  <si>
+    <t>we select teacher</t>
+  </si>
+  <si>
+    <t>new students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teacher sets up new </t>
+  </si>
+  <si>
+    <t>student manually</t>
+  </si>
+  <si>
+    <t>a student to the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We click on a button, which uploads a </t>
+  </si>
+  <si>
+    <t>file to the database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frontend. In the form we will have the  </t>
+  </si>
+  <si>
+    <t>frontend.In the same form select student.</t>
+  </si>
+  <si>
+    <t>Student sees points brea-</t>
+  </si>
+  <si>
+    <t>kup for task/semester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show student accessing the </t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The access is made using the http GET </t>
+  </si>
+  <si>
+    <t>method. The frontend is implemented</t>
+  </si>
+  <si>
+    <t>using angularJS.</t>
+  </si>
+  <si>
+    <t>Student sees points for</t>
+  </si>
+  <si>
+    <t>himself/herself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show students accessing the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">using angularJS. </t>
+  </si>
+  <si>
+    <t>The points are seen for day/period/</t>
+  </si>
+  <si>
+    <t>semester.</t>
+  </si>
+  <si>
+    <t>Student changes password</t>
+  </si>
+  <si>
+    <t>Show student changing pass</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The change is made using http PUT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">method in the REST api. Frontend is </t>
+  </si>
+  <si>
+    <t>a simple form which uses angularJS.</t>
+  </si>
+  <si>
+    <t>Qualified guess           60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,8 +377,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,82 +687,697 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>70</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2">
+        <v>160</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2">
+        <v>150</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2">
+        <v>140</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="2">
+        <v>130</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2">
+        <v>120</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="2">
+        <v>110</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="2">
+        <v>100</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="2">
+        <v>200</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="2">
+        <v>180</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="2">
+        <v>190</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
         <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="2">
+        <v>170</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="2">
+        <v>90</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>88</v>
+      </c>
+      <c r="F69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" t="s">
+        <v>89</v>
+      </c>
+      <c r="F70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>93</v>
+      </c>
+      <c r="C73" s="2">
+        <v>80</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>95</v>
+      </c>
+      <c r="F73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" t="s">
+        <v>89</v>
+      </c>
+      <c r="F74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>16</v>
+      </c>
+      <c r="B79" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="2">
+        <v>50</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>100</v>
+      </c>
+      <c r="F79" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
